--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt5a-Ror1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt5a-Ror1.xlsx
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H2">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I2">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J2">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.214072</v>
+        <v>0.9218943333333334</v>
       </c>
       <c r="N2">
-        <v>0.642216</v>
+        <v>2.765683</v>
       </c>
       <c r="O2">
-        <v>0.01028860104593152</v>
+        <v>0.04284983107934069</v>
       </c>
       <c r="P2">
-        <v>0.01028860104593152</v>
+        <v>0.04284983107934069</v>
       </c>
       <c r="Q2">
-        <v>0.014690476928</v>
+        <v>0.02170661667455556</v>
       </c>
       <c r="R2">
-        <v>0.132214292352</v>
+        <v>0.195359550071</v>
       </c>
       <c r="S2">
-        <v>8.397513425960225E-05</v>
+        <v>0.0001206460729625484</v>
       </c>
       <c r="T2">
-        <v>8.397513425960226E-05</v>
+        <v>0.0001206460729625484</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H3">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I3">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J3">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>24.915382</v>
       </c>
       <c r="O3">
-        <v>0.3991560865892211</v>
+        <v>0.3860239622463043</v>
       </c>
       <c r="P3">
-        <v>0.3991560865892212</v>
+        <v>0.3860239622463043</v>
       </c>
       <c r="Q3">
-        <v>0.5699310581226665</v>
+        <v>0.1955497598148889</v>
       </c>
       <c r="R3">
-        <v>5.129379523103999</v>
+        <v>1.759947838334</v>
       </c>
       <c r="S3">
-        <v>0.003257895394352176</v>
+        <v>0.001086871848531363</v>
       </c>
       <c r="T3">
-        <v>0.003257895394352177</v>
+        <v>0.001086871848531363</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H4">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I4">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J4">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>36.86255</v>
       </c>
       <c r="O4">
-        <v>0.5905553123648473</v>
+        <v>0.571126206674355</v>
       </c>
       <c r="P4">
-        <v>0.5905553123648474</v>
+        <v>0.571126206674355</v>
       </c>
       <c r="Q4">
-        <v>0.8432185437333333</v>
+        <v>0.2893177715944445</v>
       </c>
       <c r="R4">
-        <v>7.588966893599999</v>
+        <v>2.60385994435</v>
       </c>
       <c r="S4">
-        <v>0.004820087922756986</v>
+        <v>0.001608037470992007</v>
       </c>
       <c r="T4">
-        <v>0.004820087922756987</v>
+        <v>0.001608037470992007</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>24.758105</v>
       </c>
       <c r="I5">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J5">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.214072</v>
+        <v>0.9218943333333334</v>
       </c>
       <c r="N5">
-        <v>0.642216</v>
+        <v>2.765683</v>
       </c>
       <c r="O5">
-        <v>0.01028860104593152</v>
+        <v>0.04284983107934069</v>
       </c>
       <c r="P5">
-        <v>0.01028860104593152</v>
+        <v>0.04284983107934069</v>
       </c>
       <c r="Q5">
-        <v>1.766672351186667</v>
+        <v>7.608118901190556</v>
       </c>
       <c r="R5">
-        <v>15.90005116068</v>
+        <v>68.473070110715</v>
       </c>
       <c r="S5">
-        <v>0.01009882447048812</v>
+        <v>0.04228616931982437</v>
       </c>
       <c r="T5">
-        <v>0.01009882447048812</v>
+        <v>0.04228616931982437</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>24.758105</v>
       </c>
       <c r="I6">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J6">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>24.915382</v>
       </c>
       <c r="O6">
-        <v>0.3991560865892211</v>
+        <v>0.3860239622463043</v>
       </c>
       <c r="P6">
-        <v>0.3991560865892212</v>
+        <v>0.3860239622463043</v>
       </c>
       <c r="Q6">
         <v>68.53973818567889</v>
@@ -818,10 +818,10 @@
         <v>616.8576436711101</v>
       </c>
       <c r="S6">
-        <v>0.3917935234144886</v>
+        <v>0.3809460671812728</v>
       </c>
       <c r="T6">
-        <v>0.3917935234144886</v>
+        <v>0.3809460671812728</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>24.758105</v>
       </c>
       <c r="I7">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J7">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>36.86255</v>
       </c>
       <c r="O7">
-        <v>0.5905553123648473</v>
+        <v>0.571126206674355</v>
       </c>
       <c r="P7">
-        <v>0.5905553123648474</v>
+        <v>0.571126206674355</v>
       </c>
       <c r="Q7">
         <v>101.4052092741944</v>
@@ -880,10 +880,10 @@
         <v>912.6468834677499</v>
       </c>
       <c r="S7">
-        <v>0.5796623285383606</v>
+        <v>0.5636134115372194</v>
       </c>
       <c r="T7">
-        <v>0.5796623285383607</v>
+        <v>0.5636134115372194</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>0.259381</v>
       </c>
       <c r="I8">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J8">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.214072</v>
+        <v>0.9218943333333334</v>
       </c>
       <c r="N8">
-        <v>0.642216</v>
+        <v>2.765683</v>
       </c>
       <c r="O8">
-        <v>0.01028860104593152</v>
+        <v>0.04284983107934069</v>
       </c>
       <c r="P8">
-        <v>0.01028860104593152</v>
+        <v>0.04284983107934069</v>
       </c>
       <c r="Q8">
-        <v>0.01850873647733333</v>
+        <v>0.0797072913581111</v>
       </c>
       <c r="R8">
-        <v>0.166578628296</v>
+        <v>0.7173656222229999</v>
       </c>
       <c r="S8">
-        <v>0.0001058014411837933</v>
+        <v>0.0004430156865537715</v>
       </c>
       <c r="T8">
-        <v>0.0001058014411837933</v>
+        <v>0.0004430156865537715</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.259381</v>
       </c>
       <c r="I9">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J9">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>24.915382</v>
       </c>
       <c r="O9">
-        <v>0.3991560865892211</v>
+        <v>0.3860239622463043</v>
       </c>
       <c r="P9">
-        <v>0.3991560865892212</v>
+        <v>0.3860239622463043</v>
       </c>
       <c r="Q9">
         <v>0.7180640776157776</v>
@@ -1004,10 +1004,10 @@
         <v>6.462576698542</v>
       </c>
       <c r="S9">
-        <v>0.004104667780380342</v>
+        <v>0.00399102321650004</v>
       </c>
       <c r="T9">
-        <v>0.004104667780380343</v>
+        <v>0.00399102321650004</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.259381</v>
       </c>
       <c r="I10">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J10">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>36.86255</v>
       </c>
       <c r="O10">
-        <v>0.5905553123648473</v>
+        <v>0.571126206674355</v>
       </c>
       <c r="P10">
-        <v>0.5905553123648474</v>
+        <v>0.571126206674355</v>
       </c>
       <c r="Q10">
         <v>1.062382786838889</v>
@@ -1066,10 +1066,10 @@
         <v>9.561445081549998</v>
       </c>
       <c r="S10">
-        <v>0.006072895903729647</v>
+        <v>0.005904757666143491</v>
       </c>
       <c r="T10">
-        <v>0.006072895903729648</v>
+        <v>0.005904757666143491</v>
       </c>
     </row>
   </sheetData>
